--- a/mapping/EDAM_ENVO.xlsx
+++ b/mapping/EDAM_ENVO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>EDAM_IRI</t>
   </si>
@@ -28,6 +28,12 @@
     <t>ENVO_DESC</t>
   </si>
   <si>
+    <t>ENVO_DEF</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_0006</t>
+  </si>
+  <si>
     <t>http://edamontology.org/data_1916</t>
   </si>
   <si>
@@ -37,6 +43,9 @@
     <t>http://edamontology.org/data_2968</t>
   </si>
   <si>
+    <t>http://edamontology.org/data_2140</t>
+  </si>
+  <si>
     <t>http://edamontology.org/data_2151</t>
   </si>
   <si>
@@ -46,15 +55,48 @@
     <t>http://edamontology.org/format_1207</t>
   </si>
   <si>
+    <t>http://edamontology.org/format_3003</t>
+  </si>
+  <si>
     <t>http://edamontology.org/format_3817</t>
   </si>
   <si>
+    <t>http://edamontology.org/format_3983</t>
+  </si>
+  <si>
     <t>http://edamontology.org/topic_0083</t>
   </si>
   <si>
+    <t>http://edamontology.org/topic_3391</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_0210</t>
+  </si>
+  <si>
     <t>http://edamontology.org/topic_0782</t>
   </si>
   <si>
+    <t>http://edamontology.org/topic_0787</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_2640</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_3050</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_3334</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_3408</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/topic_3409</t>
+  </si>
+  <si>
+    <t>{'label': 'Data', 'prefLabel': None, 'altLabel': None, 'name': 'data_0006'}</t>
+  </si>
+  <si>
     <t>{'label': 'Alignment', 'prefLabel': None, 'altLabel': None, 'name': 'data_1916'}</t>
   </si>
   <si>
@@ -64,6 +106,9 @@
     <t>{'label': 'Image', 'prefLabel': None, 'altLabel': None, 'name': 'data_2968'}</t>
   </si>
   <si>
+    <t>{'label': 'Concentration', 'prefLabel': None, 'altLabel': None, 'name': 'data_2140'}</t>
+  </si>
+  <si>
     <t>{'label': 'Color', 'prefLabel': None, 'altLabel': None, 'name': 'data_2151'}</t>
   </si>
   <si>
@@ -73,15 +118,48 @@
     <t>{'label': 'nucleotide', 'prefLabel': None, 'altLabel': None, 'name': 'format_1207'}</t>
   </si>
   <si>
+    <t>{'label': 'BED', 'prefLabel': None, 'altLabel': None, 'name': 'format_3003'}</t>
+  </si>
+  <si>
     <t>{'label': 'latex', 'prefLabel': None, 'altLabel': None, 'name': 'format_3817'}</t>
   </si>
   <si>
+    <t>{'label': 'NET', 'prefLabel': None, 'altLabel': None, 'name': 'format_3983'}</t>
+  </si>
+  <si>
     <t>{'label': 'Alignment', 'prefLabel': None, 'altLabel': None, 'name': 'topic_0083'}</t>
   </si>
   <si>
+    <t>{'label': 'Omics', 'prefLabel': None, 'altLabel': None, 'name': 'topic_3391'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Fish', 'prefLabel': None, 'altLabel': None, 'name': 'topic_0210'}</t>
+  </si>
+  <si>
     <t>{'label': 'Fungi', 'prefLabel': None, 'altLabel': None, 'name': 'topic_0782'}</t>
   </si>
   <si>
+    <t>{'label': 'Rice', 'prefLabel': None, 'altLabel': None, 'name': 'topic_0787'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Oncology', 'prefLabel': None, 'altLabel': None, 'name': 'topic_2640'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Biodiversity', 'prefLabel': None, 'altLabel': None, 'name': 'topic_3050'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Neurology', 'prefLabel': None, 'altLabel': None, 'name': 'topic_3334'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Haematology', 'prefLabel': None, 'altLabel': None, 'name': 'topic_3408'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Gastroenterology', 'prefLabel': None, 'altLabel': None, 'name': 'topic_3409'}</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/IAO_0000100</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/PATO_0001652</t>
   </si>
   <si>
@@ -91,18 +169,54 @@
     <t>http://purl.obolibrary.org/obo/IAO_0000101</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001865</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/PATO_0000014</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_36976</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000591</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/ENVO_03501324</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_06105265</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001475</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01000928</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_4751</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/FOODON_00001185</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03501165</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001635</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03501162</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03501151</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_03501146</t>
+  </si>
+  <si>
+    <t>{'label': 'Data'}</t>
+  </si>
+  <si>
     <t>{'label': 'Alignment'}</t>
   </si>
   <si>
@@ -112,16 +226,61 @@
     <t>{'label': 'Image', 'prefLabel': 'Image'}</t>
   </si>
   <si>
+    <t>{'label': 'Concentration'}</t>
+  </si>
+  <si>
     <t>{'altLabel': 'Color'}</t>
   </si>
   <si>
     <t>{'label': 'nucleotide'}</t>
   </si>
   <si>
+    <t>{'label': 'BED'}</t>
+  </si>
+  <si>
     <t>{'label': 'latex'}</t>
   </si>
   <si>
+    <t>{'label': 'NET'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Omics'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Fish'}</t>
+  </si>
+  <si>
     <t>{'label': 'Fungi'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Rice'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Oncology'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Biodiversity'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Neurology'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Haematology'}</t>
+  </si>
+  <si>
+    <t>{'label': 'Gastroenterology'}</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>["A morphology quality inhering in a bearer by virtue of the bearer's relative position, shape, arrangements and connectivity of an material entity's various parts; the pattern underlying its form. [PATO]"]</t>
+  </si>
+  <si>
+    <t>['An image is an affine projection to a two dimensional surface, of measurements of some quality of an entity or entities repeated at regular intervals across a spatial range, where the measurements are represented as color and luminosity on the projected on surface. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A color is a composite chromatic quality composed of hue, saturation and intensity parts. [PATO]']</t>
   </si>
 </sst>
 </file>
@@ -492,13 +651,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,158 +670,428 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -685,6 +1114,30 @@
     <hyperlink ref="D9" r:id="rId16"/>
     <hyperlink ref="B10" r:id="rId17"/>
     <hyperlink ref="D10" r:id="rId18"/>
+    <hyperlink ref="B11" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="B12" r:id="rId21"/>
+    <hyperlink ref="D12" r:id="rId22"/>
+    <hyperlink ref="B13" r:id="rId23"/>
+    <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="B14" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26"/>
+    <hyperlink ref="B15" r:id="rId27"/>
+    <hyperlink ref="D15" r:id="rId28"/>
+    <hyperlink ref="B16" r:id="rId29"/>
+    <hyperlink ref="D16" r:id="rId30"/>
+    <hyperlink ref="B17" r:id="rId31"/>
+    <hyperlink ref="D17" r:id="rId32"/>
+    <hyperlink ref="B18" r:id="rId33"/>
+    <hyperlink ref="D18" r:id="rId34"/>
+    <hyperlink ref="B19" r:id="rId35"/>
+    <hyperlink ref="D19" r:id="rId36"/>
+    <hyperlink ref="B20" r:id="rId37"/>
+    <hyperlink ref="D20" r:id="rId38"/>
+    <hyperlink ref="B21" r:id="rId39"/>
+    <hyperlink ref="D21" r:id="rId40"/>
+    <hyperlink ref="B22" r:id="rId41"/>
+    <hyperlink ref="D22" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
